--- a/biology/Biologie cellulaire et moléculaire/Séquence_biologique/Séquence_biologique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Séquence_biologique/Séquence_biologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_biologique</t>
+          <t>Séquence_biologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une séquence biologique est la description de l'enchaînement des éléments (ou monomères) qui constituent une macromolécule biologique, acide nucléique ou protéine. Ces macromolécules sont en effet des polymères linéaires, constitués de nucléotides pour les premiers ou d'acides aminés pour les secondes. La séquence est généralement représentée sous forme d'une chaîne de caractères qui est stockée dans un fichier informatique au format texte. 
 Dans le cas de l'ADN, cela correspond à la séquence des bases, telle qu'on peut l'obtenir à la sortie d'un séquenceur de gène. Ceci correspond à l'information génétique brute. Dans le cas des protéines, cela correspond à la séquence des acides aminés qui peut être obtenue soit par séquençage chimique soit par la traduction de la séquence du gène correspondant sur l'ADN.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_biologique</t>
+          <t>Séquence_biologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Séquences génétiques
-Dans le cas d'une séquence d'ADN, le "texte" est une suite formée uniquement de 4 lettres correspondant aux quatre nucléotides formant l'enchainement d'un des brins de l'ADN : A pour adénine, G pour guanine, T pour thymine, C pour cytosine. Il faut faire attention si le sens de lecture peut être 3' vers 5' ou inverse.
+          <t>Séquences génétiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas d'une séquence d'ADN, le "texte" est une suite formée uniquement de 4 lettres correspondant aux quatre nucléotides formant l'enchainement d'un des brins de l'ADN : A pour adénine, G pour guanine, T pour thymine, C pour cytosine. Il faut faire attention si le sens de lecture peut être 3' vers 5' ou inverse.
 Exemple d'une séquence biologique d'ADN pour le gène Antennapedia CG1028-RH de Drosophila melanogaster :
        1 ttcagttgtg aatgaatgga cgtgccaaat agacgtgccg ccgccgctcg attcgcactt
       61 tgctttcggt tttgccgtcg tttcacgcgt ttagttccgt tcggttcatt cccagttctt
@@ -586,8 +603,6 @@
     3961 ttgatgagcg ccattagtta cacgttatgt gcaatggatg ccatcaattt attaatctcc
     4021 agaacacgcc gaggctccat tcatagcacc acttcgtcgt cttaatcccc tccctcatcc
     4081 gccatggcgg tgcaaaaaat aaaaagaact c
-Séquences d'ARN
-Dans le cas d'une séquence d'ARN, la lettre U est utilisée pour désigner l'uracile remplaçant la thymine pour ces molécules.
 </t>
         </is>
       </c>
@@ -598,7 +613,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_biologique</t>
+          <t>Séquence_biologique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -613,10 +628,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Séquences nucléotidiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Séquences d'ARN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas d'une séquence d'ARN, la lettre U est utilisée pour désigner l'uracile remplaçant la thymine pour ces molécules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Séquence_biologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quence_biologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Séquences protéiques (peptidiques)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette séquence correspond à ce qu'on appelle la structure primaire de la protéine en biochimie. On appelle traduction, l'étape de synthèse protéique à partir d'une séquence nucléotidique, cette étape peut être facilement prédite par des logiciels informatiques pour l'identification de gènes jusqu'alors inconnus. Le code génétique donne une lettre de l'alphabet pour chacun des 20 acides aminés existants, en correspondance aux différents codons. Comme un codon est formé de trois bases, la séquence protéique est trois fois plus courte que la séquence nucléique correspondante.
 Voici un exemple en protéique du gène Antennipedia de Drosophile :
@@ -629,43 +683,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S%C3%A9quence_biologique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/S%C3%A9quence_biologique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Autres séquences</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Séquence glucidique,</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_biologique</t>
+          <t>Séquence_biologique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -680,18 +704,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Traitements informatiques</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Analyse de séquences
-Des séquences comme celles-ci peuvent être utilisées en entrée (copiées/collées avec toutes leurs annotations) pour faire des analyses de séquences comme avec le programme BLAST.
-D'autres programmes permettent d'effectuer des recherches de structures palindromiques.
-Bluejay est un programme écrit en Java[1] permettant de transformer des données de séquences d'ADN en XML.
-Annotations génomiques
-Ensembl est un logiciel servant à annoter les séquences génomiques.
-</t>
+          <t>Autres séquences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Séquence glucidique,</t>
         </is>
       </c>
     </row>
@@ -701,7 +721,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_biologique</t>
+          <t>Séquence_biologique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -716,10 +736,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Traitements informatiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Analyse de séquences</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des séquences comme celles-ci peuvent être utilisées en entrée (copiées/collées avec toutes leurs annotations) pour faire des analyses de séquences comme avec le programme BLAST.
+D'autres programmes permettent d'effectuer des recherches de structures palindromiques.
+Bluejay est un programme écrit en Java permettant de transformer des données de séquences d'ADN en XML.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Séquence_biologique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quence_biologique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitements informatiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Annotations génomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensembl est un logiciel servant à annoter les séquences génomiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Séquence_biologique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quence_biologique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Types de séquences biologiques particulières</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Séquence répétée,
 Séquence terminale longue répétée
